--- a/my1stProject/block2/block2.xlsx
+++ b/my1stProject/block2/block2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19440" windowHeight="7635" tabRatio="820" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19440" windowHeight="7635" tabRatio="820" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="9" r:id="rId1"/>
@@ -168,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="460">
   <si>
     <t>Component Name</t>
   </si>
@@ -1429,9 +1429,6 @@
     <t>Sheet name</t>
   </si>
   <si>
-    <t>AMS_Discipline</t>
-  </si>
-  <si>
     <t>BusInterfaceRef</t>
   </si>
   <si>
@@ -1516,9 +1513,6 @@
     <t>addressSpaceDescription</t>
   </si>
   <si>
-    <t>Spec_Type</t>
-  </si>
-  <si>
     <t>block2</t>
   </si>
   <si>
@@ -1543,9 +1537,6 @@
     <t>reg_groupA_address_width</t>
   </si>
   <si>
-    <t>$addr_width</t>
-  </si>
-  <si>
     <t>hresetn</t>
   </si>
   <si>
@@ -1555,9 +1546,6 @@
     <t>hclk</t>
   </si>
   <si>
-    <t>hrdata[$bus_width-1:0]</t>
-  </si>
-  <si>
     <t>out</t>
   </si>
   <si>
@@ -1567,9 +1555,6 @@
     <t>htrans[1:0]</t>
   </si>
   <si>
-    <t>haddr[$addr_width-1:0]</t>
-  </si>
-  <si>
     <t>hwrite</t>
   </si>
   <si>
@@ -1579,9 +1564,6 @@
     <t>hprot[3:0]</t>
   </si>
   <si>
-    <t>hwdata[$bus_width-1:0]</t>
-  </si>
-  <si>
     <t>hsel</t>
   </si>
   <si>
@@ -1594,18 +1576,6 @@
     <t>amba_widget</t>
   </si>
   <si>
-    <t>soce,example,1,amba_widget.v</t>
-  </si>
-  <si>
-    <t>hrdata[31:0]</t>
-  </si>
-  <si>
-    <t>haddr[31:0]</t>
-  </si>
-  <si>
-    <t>hwdata[31:0]</t>
-  </si>
-  <si>
     <t>Reg1_enb</t>
   </si>
   <si>
@@ -1643,6 +1613,51 @@
   </si>
   <si>
     <t>[15:0]</t>
+  </si>
+  <si>
+    <t>hrdata[$bus_width -1:0]</t>
+  </si>
+  <si>
+    <t>hwdata[$bus_width -1:0]</t>
+  </si>
+  <si>
+    <t>haddr[$addr_width -1:0]</t>
+  </si>
+  <si>
+    <t>soce,example,amba_widget,1</t>
+  </si>
+  <si>
+    <t>hrdata</t>
+  </si>
+  <si>
+    <t>hresp</t>
+  </si>
+  <si>
+    <t>htrans</t>
+  </si>
+  <si>
+    <t>haddr</t>
+  </si>
+  <si>
+    <t>hsize</t>
+  </si>
+  <si>
+    <t>hprot</t>
+  </si>
+  <si>
+    <t>hwdata</t>
+  </si>
+  <si>
+    <t>hbrust</t>
+  </si>
+  <si>
+    <t>{connectionRequired=true}</t>
+  </si>
+  <si>
+    <t>spec_type</t>
+  </si>
+  <si>
+    <t>ams_discipline</t>
   </si>
 </sst>
 </file>
@@ -2805,10 +2820,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3202,7 +3217,7 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
@@ -3213,7 +3228,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="94" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
@@ -3224,7 +3239,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="94" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
@@ -3460,7 +3475,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3509,7 +3524,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="108" t="str">
         <f>ids_template!B88</f>
-        <v>Spec_Type</v>
+        <v>spec_type</v>
       </c>
       <c r="C3" s="109"/>
       <c r="D3" s="109"/>
@@ -3528,7 +3543,7 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="str">
         <f>ids_template!B91</f>
-        <v>AMS_Discipline</v>
+        <v>ams_discipline</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -3557,8 +3572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F191"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4615,7 +4630,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B88" s="62" t="s">
-        <v>412</v>
+        <v>458</v>
       </c>
       <c r="C88" s="63" t="s">
         <v>185</v>
@@ -4648,7 +4663,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B91" s="62" t="s">
-        <v>383</v>
+        <v>459</v>
       </c>
       <c r="C91" s="63" t="s">
         <v>189</v>
@@ -4840,7 +4855,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B109" s="62" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C109" s="63" t="s">
         <v>249</v>
@@ -4923,7 +4938,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B117" s="62" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C117" s="63" t="s">
         <v>251</v>
@@ -4959,7 +4974,7 @@
         <v>356</v>
       </c>
       <c r="C120" s="63" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D120" s="64"/>
       <c r="E120" s="65"/>
@@ -4970,7 +4985,7 @@
         <v>355</v>
       </c>
       <c r="C121" s="63" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D121" s="64"/>
       <c r="E121" s="65"/>
@@ -5039,7 +5054,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B128" s="62" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C128" s="63" t="s">
         <v>319</v>
@@ -5083,7 +5098,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B132" s="62" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C132" s="63" t="s">
         <v>326</v>
@@ -5094,7 +5109,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B133" s="62" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C133" s="63" t="s">
         <v>327</v>
@@ -5140,7 +5155,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B138" s="62" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C138" s="63" t="s">
         <v>331</v>
@@ -5162,7 +5177,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B140" s="62" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C140" s="63" t="s">
         <v>334</v>
@@ -5173,7 +5188,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B141" s="62" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C141" s="63" t="s">
         <v>335</v>
@@ -5184,7 +5199,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B142" s="62" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C142" s="63" t="s">
         <v>336</v>
@@ -5212,7 +5227,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B145" s="62" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C145" s="63" t="s">
         <v>338</v>
@@ -5223,7 +5238,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B146" s="62" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C146" s="63" t="s">
         <v>339</v>
@@ -5245,7 +5260,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B148" s="62" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C148" s="63" t="s">
         <v>342</v>
@@ -5256,7 +5271,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B149" s="62" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C149" s="63" t="s">
         <v>343</v>
@@ -5267,7 +5282,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B150" s="62" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C150" s="63" t="s">
         <v>344</v>
@@ -5288,7 +5303,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B152" s="62" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C152" s="63" t="s">
         <v>278</v>
@@ -5381,7 +5396,7 @@
         <v>358</v>
       </c>
       <c r="C161" s="63" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D161" s="64"/>
       <c r="E161" s="65"/>
@@ -5389,10 +5404,10 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B162" s="62" t="s">
+        <v>401</v>
+      </c>
+      <c r="C162" s="63" t="s">
         <v>402</v>
-      </c>
-      <c r="C162" s="63" t="s">
-        <v>403</v>
       </c>
       <c r="D162" s="64"/>
       <c r="E162" s="65"/>
@@ -5403,7 +5418,7 @@
         <v>360</v>
       </c>
       <c r="C163" s="63" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D163" s="64"/>
       <c r="E163" s="65"/>
@@ -5414,7 +5429,7 @@
         <v>361</v>
       </c>
       <c r="C164" s="63" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D164" s="64"/>
       <c r="E164" s="65"/>
@@ -5425,7 +5440,7 @@
         <v>362</v>
       </c>
       <c r="C165" s="63" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D165" s="64"/>
       <c r="E165" s="65"/>
@@ -5436,7 +5451,7 @@
         <v>363</v>
       </c>
       <c r="C166" s="63" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D166" s="64"/>
       <c r="E166" s="65"/>
@@ -5447,7 +5462,7 @@
         <v>364</v>
       </c>
       <c r="C167" s="63" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D167" s="64"/>
       <c r="E167" s="65"/>
@@ -5458,7 +5473,7 @@
         <v>354</v>
       </c>
       <c r="C168" s="63" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D168" s="64"/>
       <c r="E168" s="65"/>
@@ -5466,10 +5481,10 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B169" s="62" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C169" s="63" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D169" s="64"/>
       <c r="E169" s="65"/>
@@ -5649,7 +5664,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5703,7 +5718,7 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="16"/>
       <c r="C4" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D4" s="7">
         <v>32</v>
@@ -5713,7 +5728,7 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="16"/>
       <c r="C5" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D5" s="7">
         <v>3</v>
@@ -5723,7 +5738,7 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="16"/>
       <c r="C6" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D6" s="7">
         <v>0</v>
@@ -5733,7 +5748,7 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="16"/>
       <c r="C7" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D7" s="85">
         <v>1</v>
@@ -5743,10 +5758,10 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="16"/>
       <c r="C8" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
+      </c>
+      <c r="D8" s="7">
+        <v>3</v>
       </c>
       <c r="E8" s="17"/>
     </row>
@@ -5795,7 +5810,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5829,11 +5844,11 @@
       </c>
       <c r="D2" s="15" t="str">
         <f>ids_template!B88</f>
-        <v>Spec_Type</v>
+        <v>spec_type</v>
       </c>
       <c r="E2" s="15" t="str">
         <f>ids_template!B91</f>
-        <v>AMS_Discipline</v>
+        <v>ams_discipline</v>
       </c>
       <c r="F2" s="130" t="s">
         <v>11</v>
@@ -5841,20 +5856,20 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -5862,10 +5877,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -5873,10 +5888,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -5884,10 +5899,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -5895,10 +5910,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -5906,10 +5921,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -5917,10 +5932,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -5928,10 +5943,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -5939,10 +5954,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -5950,10 +5965,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -5961,10 +5976,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -5972,10 +5987,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -5983,10 +5998,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -5994,10 +6009,10 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -6005,10 +6020,10 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -6016,10 +6031,10 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -6027,10 +6042,10 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -6038,10 +6053,10 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -6049,10 +6064,10 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -6176,7 +6191,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6242,12 +6257,14 @@
     </row>
     <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>438</v>
-      </c>
-      <c r="E3" s="109"/>
+        <v>448</v>
+      </c>
+      <c r="E3" s="109" t="s">
+        <v>457</v>
+      </c>
       <c r="F3" s="109"/>
       <c r="G3" s="109"/>
       <c r="H3" s="109"/>
@@ -6258,10 +6275,10 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4"/>
       <c r="C4" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -6274,10 +6291,10 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5"/>
       <c r="C5" s="11" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -6290,10 +6307,10 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6"/>
       <c r="C6" s="11" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -6306,10 +6323,10 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7"/>
       <c r="C7" s="11" t="s">
-        <v>427</v>
+        <v>450</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -6322,10 +6339,10 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8"/>
       <c r="C8" s="11" t="s">
-        <v>428</v>
+        <v>451</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -6338,10 +6355,10 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9"/>
       <c r="C9" s="11" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -6354,10 +6371,10 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10"/>
       <c r="C10" s="11" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -6370,10 +6387,10 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11"/>
       <c r="C11" s="11" t="s">
-        <v>431</v>
+        <v>453</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -6386,10 +6403,10 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12"/>
       <c r="C12" s="11" t="s">
-        <v>432</v>
+        <v>454</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -6402,10 +6419,10 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13"/>
       <c r="C13" s="11" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -6418,10 +6435,10 @@
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14"/>
       <c r="C14" s="11" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -6434,10 +6451,10 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15"/>
       <c r="C15" s="11" t="s">
-        <v>435</v>
+        <v>456</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -6450,10 +6467,10 @@
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16"/>
       <c r="C16" s="11" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -7286,7 +7303,7 @@
         <v>354</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -7396,12 +7413,12 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="D5">
         <v>32</v>
@@ -7409,7 +7426,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="F6" t="s">
         <v>103</v>
@@ -7421,12 +7438,12 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="D7">
         <v>32</v>
@@ -7434,7 +7451,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="F8" t="s">
         <v>108</v>
@@ -7446,7 +7463,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -7533,7 +7550,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="163"/>
+      <c r="B3" s="164"/>
       <c r="C3" s="110"/>
       <c r="D3" s="111"/>
       <c r="E3" s="112"/>
@@ -7547,8 +7564,8 @@
       <c r="M3" s="116"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="163"/>
-      <c r="C4" s="163"/>
+      <c r="B4" s="164"/>
+      <c r="C4" s="164"/>
       <c r="D4" s="165"/>
       <c r="E4" s="166"/>
       <c r="F4" s="113"/>
@@ -7561,8 +7578,8 @@
       <c r="M4" s="116"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="163"/>
-      <c r="C5" s="163"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="164"/>
       <c r="D5" s="165"/>
       <c r="E5" s="166"/>
       <c r="F5" s="113"/>
@@ -7575,8 +7592,8 @@
       <c r="M5" s="116"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="163"/>
-      <c r="C6" s="163"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="164"/>
       <c r="D6" s="165"/>
       <c r="E6" s="166"/>
       <c r="F6" s="113"/>
@@ -7589,8 +7606,8 @@
       <c r="M6" s="116"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="163"/>
-      <c r="C7" s="163"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="164"/>
       <c r="D7" s="165"/>
       <c r="E7" s="166"/>
       <c r="F7" s="113"/>
@@ -7603,8 +7620,8 @@
       <c r="M7" s="116"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="163"/>
-      <c r="C8" s="163"/>
+      <c r="B8" s="164"/>
+      <c r="C8" s="164"/>
       <c r="D8" s="165"/>
       <c r="E8" s="166"/>
       <c r="F8" s="113"/>
@@ -7617,7 +7634,7 @@
       <c r="M8" s="122"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="163"/>
+      <c r="B9" s="164"/>
       <c r="C9" s="90"/>
       <c r="D9" s="111"/>
       <c r="E9" s="112"/>
@@ -7631,7 +7648,7 @@
       <c r="M9" s="122"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="163"/>
+      <c r="B10" s="164"/>
       <c r="C10" s="110"/>
       <c r="D10" s="111"/>
       <c r="E10" s="112"/>
@@ -7645,7 +7662,7 @@
       <c r="M10" s="111"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="163"/>
+      <c r="B11" s="164"/>
       <c r="C11" s="124"/>
       <c r="D11" s="116"/>
       <c r="E11" s="125"/>
@@ -7659,8 +7676,8 @@
       <c r="M11" s="116"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="164"/>
-      <c r="C12" s="163"/>
+      <c r="B12" s="163"/>
+      <c r="C12" s="164"/>
       <c r="D12" s="165"/>
       <c r="E12" s="112"/>
       <c r="F12" s="113"/>
@@ -7673,8 +7690,8 @@
       <c r="M12" s="122"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="164"/>
-      <c r="C13" s="163"/>
+      <c r="B13" s="163"/>
+      <c r="C13" s="164"/>
       <c r="D13" s="165"/>
       <c r="E13" s="112"/>
       <c r="F13" s="113"/>
@@ -7687,8 +7704,8 @@
       <c r="M13" s="122"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="164"/>
-      <c r="C14" s="163"/>
+      <c r="B14" s="163"/>
+      <c r="C14" s="164"/>
       <c r="D14" s="165"/>
       <c r="E14" s="112"/>
       <c r="F14" s="113"/>
@@ -7701,8 +7718,8 @@
       <c r="M14" s="122"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="164"/>
-      <c r="C15" s="163"/>
+      <c r="B15" s="163"/>
+      <c r="C15" s="164"/>
       <c r="D15" s="165"/>
       <c r="E15" s="112"/>
       <c r="F15" s="113"/>
@@ -7715,8 +7732,8 @@
       <c r="M15" s="122"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="164"/>
-      <c r="C16" s="163"/>
+      <c r="B16" s="163"/>
+      <c r="C16" s="164"/>
       <c r="D16" s="165"/>
       <c r="E16" s="112"/>
       <c r="F16" s="113"/>
@@ -7729,8 +7746,8 @@
       <c r="M16" s="122"/>
     </row>
     <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="164"/>
-      <c r="C17" s="163"/>
+      <c r="B17" s="163"/>
+      <c r="C17" s="164"/>
       <c r="D17" s="165"/>
       <c r="E17" s="112"/>
       <c r="F17" s="113"/>
@@ -7743,8 +7760,8 @@
       <c r="M17" s="122"/>
     </row>
     <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="164"/>
-      <c r="C18" s="163"/>
+      <c r="B18" s="163"/>
+      <c r="C18" s="164"/>
       <c r="D18" s="165"/>
       <c r="E18" s="112"/>
       <c r="F18" s="113"/>
@@ -7757,8 +7774,8 @@
       <c r="M18" s="122"/>
     </row>
     <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="164"/>
-      <c r="C19" s="163"/>
+      <c r="B19" s="163"/>
+      <c r="C19" s="164"/>
       <c r="D19" s="165"/>
       <c r="E19" s="112"/>
       <c r="F19" s="113"/>
@@ -7814,12 +7831,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B15"/>
@@ -7830,6 +7841,12 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8138,7 +8155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>

--- a/my1stProject/block2/block2.xlsx
+++ b/my1stProject/block2/block2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19440" windowHeight="7635" tabRatio="820" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19440" windowHeight="7635" tabRatio="820" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="9" r:id="rId1"/>
@@ -1567,9 +1567,6 @@
     <t>hsel</t>
   </si>
   <si>
-    <t>hbrust[2:0]</t>
-  </si>
-  <si>
     <t>hready</t>
   </si>
   <si>
@@ -1648,9 +1645,6 @@
     <t>hwdata</t>
   </si>
   <si>
-    <t>hbrust</t>
-  </si>
-  <si>
     <t>{connectionRequired=true}</t>
   </si>
   <si>
@@ -1658,6 +1652,12 @@
   </si>
   <si>
     <t>ams_discipline</t>
+  </si>
+  <si>
+    <t>hburst[2:0]</t>
+  </si>
+  <si>
+    <t>hburst</t>
   </si>
 </sst>
 </file>
@@ -3572,7 +3572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+    <sheetView topLeftCell="A75" workbookViewId="0">
       <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
@@ -4630,7 +4630,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B88" s="62" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C88" s="63" t="s">
         <v>185</v>
@@ -4663,7 +4663,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B91" s="62" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C91" s="63" t="s">
         <v>189</v>
@@ -5810,7 +5810,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5877,7 +5877,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>422</v>
@@ -5910,7 +5910,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>420</v>
@@ -5954,7 +5954,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>420</v>
@@ -5976,7 +5976,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
-        <v>429</v>
+        <v>458</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>420</v>
@@ -5987,7 +5987,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>422</v>
@@ -5998,7 +5998,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>422</v>
@@ -6009,7 +6009,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>420</v>
@@ -6020,7 +6020,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>420</v>
@@ -6031,7 +6031,7 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>422</v>
@@ -6042,7 +6042,7 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>420</v>
@@ -6053,7 +6053,7 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>420</v>
@@ -6064,7 +6064,7 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>422</v>
@@ -6189,9 +6189,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6257,13 +6257,13 @@
     </row>
     <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E3" s="109" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F3" s="109"/>
       <c r="G3" s="109"/>
@@ -6307,10 +6307,10 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6"/>
       <c r="C6" s="11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -6323,7 +6323,7 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7"/>
       <c r="C7" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>423</v>
@@ -6339,7 +6339,7 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8"/>
       <c r="C8" s="11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>424</v>
@@ -6355,10 +6355,10 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9"/>
       <c r="C9" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -6387,7 +6387,7 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11"/>
       <c r="C11" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>426</v>
@@ -6403,7 +6403,7 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12"/>
       <c r="C12" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>427</v>
@@ -6419,10 +6419,10 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13"/>
       <c r="C13" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -6451,10 +6451,10 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15"/>
       <c r="C15" s="11" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>429</v>
+        <v>458</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -6467,10 +6467,10 @@
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16"/>
       <c r="C16" s="11" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -7413,12 +7413,12 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D5">
         <v>32</v>
@@ -7426,7 +7426,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F6" t="s">
         <v>103</v>
@@ -7438,12 +7438,12 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D7">
         <v>32</v>
@@ -7451,7 +7451,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F8" t="s">
         <v>108</v>
@@ -7463,7 +7463,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>
